--- a/data/trans_bre/P16A15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Edad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Edad-trans_bre.xlsx
@@ -677,7 +677,7 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>3.684789743221557</v>
+        <v>3.847420915741947</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -728,20 +728,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5190214940946594</v>
+        <v>-0.4998464967640042</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.855137001863584</v>
+        <v>-2.142001547506474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.0979715279361</v>
+        <v>-1.179766374179836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.3897781716250666</v>
+        <v>-0.4098182579313986</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.846860583511449</v>
+        <v>-0.8835855066291767</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
@@ -754,20 +754,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6181135598480413</v>
+        <v>0.6205291031522205</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8285622035408021</v>
+        <v>0.7210562492303357</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1760484506773761</v>
+        <v>0.1626682398338304</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.527186053684958</v>
+        <v>1.556596164337742</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>1.30653203672482</v>
+        <v>1.158066611691245</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
@@ -805,7 +805,7 @@
         <v>-0.7152939948294427</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.6016992519210946</v>
+        <v>-0.6016992519210947</v>
       </c>
     </row>
     <row r="11">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.966281833573036</v>
+        <v>-2.26142504531059</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.478419152259695</v>
+        <v>-2.707750313048094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.905823487862803</v>
+        <v>-3.887283785163763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.956567773136415</v>
+        <v>-3.72851126382781</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6161503973863975</v>
+        <v>-0.66382886977068</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5658047336524532</v>
+        <v>-0.5909531510165448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8989721712023575</v>
+        <v>-0.9044135604078098</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.8273502610802808</v>
+        <v>-0.8244437807286821</v>
       </c>
     </row>
     <row r="12">
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.104105786133534</v>
+        <v>1.150062848516678</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.225777841519202</v>
+        <v>0.9899869505602004</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.7303995653488793</v>
+        <v>-0.8121020602493954</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4225266055571076</v>
+        <v>-0.4531039115416692</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7990739771210734</v>
+        <v>0.769766445876862</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5261861074712703</v>
+        <v>0.4109522691117772</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1118446622881481</v>
+        <v>-0.3149327851652027</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.129257083603104</v>
+        <v>-0.1807757735266829</v>
       </c>
     </row>
     <row r="13">
@@ -893,7 +893,7 @@
         <v>0.3654907226216836</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.20542166233562</v>
+        <v>-3.205421662335618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1391878971031724</v>
@@ -905,7 +905,7 @@
         <v>0.04860697937391133</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3526308389177698</v>
+        <v>-0.3526308389177696</v>
       </c>
     </row>
     <row r="14">
@@ -916,28 +916,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.503240881199859</v>
+        <v>-3.466561876479463</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.287100470205164</v>
+        <v>-1.945589945001861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.688172071601713</v>
+        <v>-2.803445095849222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.904055805585895</v>
+        <v>-6.050844013206459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4831930505193048</v>
+        <v>-0.5014727445165322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2503453894157658</v>
+        <v>-0.2267323834727678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3106762425701294</v>
+        <v>-0.3166329136355009</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5367427066779393</v>
+        <v>-0.5355023455665541</v>
       </c>
     </row>
     <row r="15">
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.04066112893746</v>
+        <v>1.685159322414518</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.730280065170041</v>
+        <v>4.760676080970685</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.327777340935766</v>
+        <v>3.33670330982072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.4760452656876459</v>
+        <v>-0.9463531832528833</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5093008851750671</v>
+        <v>0.3919075571446216</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7158422664756567</v>
+        <v>0.7489983617898142</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5688217352854529</v>
+        <v>0.5910634513369477</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.04312131980403575</v>
+        <v>-0.1183856249285557</v>
       </c>
     </row>
     <row r="16">
@@ -993,7 +993,7 @@
         <v>4.689348069881211</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.296627496254757</v>
+        <v>1.29662749625476</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09797239047299773</v>
@@ -1005,7 +1005,7 @@
         <v>0.3011602998642754</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.06746595570630319</v>
+        <v>0.06746595570630336</v>
       </c>
     </row>
     <row r="17">
@@ -1016,28 +1016,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.521773843145031</v>
+        <v>-3.424516981944971</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.42086745076096</v>
+        <v>-2.182288409264401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5549133629644221</v>
+        <v>-0.3677097136454681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.725933114822062</v>
+        <v>-2.551518112690341</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2211545848103153</v>
+        <v>-0.228587156223294</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1173070316190046</v>
+        <v>-0.104322829551211</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.0325839311541493</v>
+        <v>-0.02320723365326344</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1277526054438479</v>
+        <v>-0.1211614425334787</v>
       </c>
     </row>
     <row r="18">
@@ -1048,28 +1048,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.256473214957644</v>
+        <v>6.226149084015806</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.20331161859484</v>
+        <v>9.530115123330656</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.966548763972114</v>
+        <v>10.20068594834454</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.891365419322687</v>
+        <v>4.9697897597619</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6252599295450135</v>
+        <v>0.5435982350837051</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5535228937876153</v>
+        <v>0.5869911231517578</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7531492576277322</v>
+        <v>0.8037034175380969</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2871603855377582</v>
+        <v>0.3002964098265786</v>
       </c>
     </row>
     <row r="19">
@@ -1116,28 +1116,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.407426960190186</v>
+        <v>0.5841744641998827</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.658002575793738</v>
+        <v>-9.342649329587756</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-8.518171217823296</v>
+        <v>-8.452877507594513</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.3392695811803815</v>
+        <v>0.129412109297421</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06314043662257121</v>
+        <v>0.02202943706281424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.229823820203344</v>
+        <v>-0.2466361537791239</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2555591087347825</v>
+        <v>-0.2473001392971231</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01519117404134201</v>
+        <v>0.0006941694015164561</v>
       </c>
     </row>
     <row r="21">
@@ -1148,28 +1148,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.75309004453313</v>
+        <v>13.10171155973288</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.379040782677034</v>
+        <v>5.671394143088818</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.149372458980397</v>
+        <v>5.017690082051035</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.885906157513258</v>
+        <v>10.20654320586586</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9615059843125183</v>
+        <v>0.9015745940619365</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2086676434148588</v>
+        <v>0.196517867265367</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.200380262587619</v>
+        <v>0.2014723376146812</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4052887620637476</v>
+        <v>0.4109338529002725</v>
       </c>
     </row>
     <row r="22">
@@ -1193,7 +1193,7 @@
         <v>2.401504165404811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.968767001201214</v>
+        <v>5.968767001201219</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2589173128290206</v>
@@ -1205,7 +1205,7 @@
         <v>0.08329450672073842</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1686152604884671</v>
+        <v>0.1686152604884673</v>
       </c>
     </row>
     <row r="23">
@@ -1216,28 +1216,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.550563743234473</v>
+        <v>-1.916491179722761</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.558375567836642</v>
+        <v>-4.179170331853324</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.197444949496976</v>
+        <v>-6.26828939755844</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3581300089111373</v>
+        <v>0.4377398892781836</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1197378920266853</v>
+        <v>-0.09099965132864553</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1202542740715576</v>
+        <v>-0.1167169107076613</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1592249939208212</v>
+        <v>-0.1943478260569045</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.006070738603834047</v>
+        <v>0.01138336098029202</v>
       </c>
     </row>
     <row r="24">
@@ -1248,28 +1248,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.54353067251275</v>
+        <v>11.80148920376176</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.37407205066593</v>
+        <v>11.35310202141089</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.719702070683708</v>
+        <v>8.773564341793072</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.36175817454491</v>
+        <v>11.95950774272891</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8311215620318656</v>
+        <v>0.7590493270112085</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4220474329519121</v>
+        <v>0.4210263268678584</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3849757615296805</v>
+        <v>0.3569832250656658</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3574741907054464</v>
+        <v>0.3758479053023838</v>
       </c>
     </row>
     <row r="25">
@@ -1316,28 +1316,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9320747776324295</v>
+        <v>0.8554060347013224</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2095865278119729</v>
+        <v>0.3287735678141615</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1086880654734715</v>
+        <v>0.056609429533083</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.493920034988843</v>
+        <v>0.5360673573973981</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1399649498305195</v>
+        <v>0.1329902910180228</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01845352899749561</v>
+        <v>0.03025938857046378</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01090922633783723</v>
+        <v>0.001885153183015408</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03981393110920547</v>
+        <v>0.04191158397553388</v>
       </c>
     </row>
     <row r="27">
@@ -1348,28 +1348,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.320612207200425</v>
+        <v>3.405562215966117</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.579369124451453</v>
+        <v>3.434768977451878</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.129058521308277</v>
+        <v>3.036229887144141</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.236210084376716</v>
+        <v>3.243753489656306</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.64178733338521</v>
+        <v>0.6418022395701427</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3734532141560775</v>
+        <v>0.3633421201876718</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3613314305784512</v>
+        <v>0.3477681479768569</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2949433804072215</v>
+        <v>0.2926923508432675</v>
       </c>
     </row>
     <row r="28">
